--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tkint\Documents\Pipeline\pipeline-ms-dao\pipeline-ms-dao-tournament\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766119BE-A275-40DC-AB2E-3E38168918DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A50059-B44A-4D35-9516-A2CD0B245A74}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Nom Tournoi</t>
   </si>
@@ -111,7 +111,7 @@
     <t>PROFESSIONNEL</t>
   </si>
   <si>
-    <t>MONTPELLIER 01</t>
+    <t>MONTPELLIER 03</t>
   </si>
 </sst>
 </file>
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,6 +630,58 @@
         <v>43287</v>
       </c>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" s="2">
+        <v>43287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="2">
+        <v>43287</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
